--- a/data/kb_sheets/testknowledge.xlsx
+++ b/data/kb_sheets/testknowledge.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="predisbursal_loan_query_loan_ca" sheetId="1" state="visible" r:id="rId3"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="871">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hi, i had applied for a loan of 24000 in insta money app. kindly revert my credit limit at the earliest. thank you ravikiran</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Cancel applying lone</t>
@@ -280,9 +283,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hi Instamoney loan team. I cleared all my dues. I want to close my loan app account. Please proceed my application. These are my details Name - Sapna Anith User name- Sapna Anith Mobile - 8883082082 Loan number-LOC-B69JCQX7 Reason: I don't want to use anymore Kindly do the needful Thanks &amp; Regards Sapna Anith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disbursed</t>
   </si>
   <si>
     <t xml:space="preserve">Dear Sir/mam,
@@ -1009,7 +1009,7 @@
 Team Instamoney</t>
   </si>
   <si>
-    <t xml:space="preserve">IMBANK_STATEMENTCompleted</t>
+    <t xml:space="preserve">IMCreatedBANK_STATEMENT</t>
   </si>
   <si>
     <t xml:space="preserve">IMKYCCompleted</t>
@@ -1882,9 +1882,6 @@
 Team Instamoney</t>
   </si>
   <si>
-    <t xml:space="preserve">emal body</t>
-  </si>
-  <si>
     <t xml:space="preserve">Requesting you to share the latest loan closure NOC
 </t>
   </si>
@@ -4261,6 +4258,9 @@
 Please give me option to change my account 
 Name - vishal kamboj
 No -9897960687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disbursed</t>
   </si>
   <si>
     <t xml:space="preserve">Remove my PAN and other my personal details from your data base
@@ -5400,8 +5400,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5580,374 +5584,380 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="53.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.66"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>46</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5975,350 +5985,350 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="68.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6341,37 +6351,37 @@
   <dimension ref="A2:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="53.3" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="53.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="53.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="53.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>332</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6393,163 +6403,163 @@
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="53.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>337</v>
+      <c r="D12" s="4" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -6577,124 +6587,124 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="47.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>359</v>
+      <c r="C12" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6715,18 +6725,18 @@
   </sheetPr>
   <dimension ref="M2:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>329</v>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6754,19 +6764,19 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="35.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="4" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3" t="s">
-        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -6794,10 +6804,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6826,223 +6836,223 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="37.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F5" s="3" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -7070,289 +7080,289 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="49.3" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -7380,256 +7390,256 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="43.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>412</v>
+      <c r="G2" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="43.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -7648,130 +7658,163 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="39.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="D11" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7799,262 +7842,262 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.99"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="749.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="749.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="647.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="749.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="749.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="749.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="647.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="749.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="749.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="647.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -8082,256 +8125,256 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="57.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="G5" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="G6" s="3" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G7" s="3" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="G8" s="2" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="G9" s="3" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="G10" s="3" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="G11" s="3" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -8359,10 +8402,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8391,122 +8434,122 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="32.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>356</v>
+      <c r="C2" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>605</v>
+      <c r="C12" s="4" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -8534,10 +8577,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8566,10 +8609,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8598,101 +8641,101 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="47.3" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C9" s="3" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
         <v>625</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -8720,154 +8763,154 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="60.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="6" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="9" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="D8" s="3" t="s">
+    <row r="10" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="12" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8896,123 +8939,123 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="G2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="1627" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14"/>
+      <c r="B3" s="3" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="1463.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="827" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="715.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="677" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="601.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="827" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="715.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="827" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="715.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="827" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="715.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="827" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="715.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>653</v>
+      <c r="C9" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -9040,10 +9083,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9072,10 +9115,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9104,190 +9147,190 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="39.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="E2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -9315,198 +9358,198 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="49.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>648</v>
+      <c r="C2" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>726</v>
       </c>
     </row>
@@ -9535,121 +9578,121 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="52.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>748</v>
       </c>
     </row>
@@ -9678,16 +9721,16 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9716,30 +9759,30 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="40.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="40.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="40.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>754</v>
       </c>
     </row>
@@ -9768,10 +9811,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9800,130 +9843,130 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="1033.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" customFormat="false" ht="1177" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14"/>
+      <c r="B3" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="1078.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" customFormat="false" ht="1202" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="953.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" customFormat="false" ht="1177" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="1033.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" customFormat="false" ht="1177" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="1067.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="1227" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="851.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="964.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="1010.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="1139.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="1157.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="1314.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="885.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="2" t="s">
+    <row r="11" customFormat="false" ht="1002" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="953.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="1102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
         <v>780</v>
       </c>
     </row>
@@ -9952,10 +9995,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9984,10 +10027,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10016,119 +10059,119 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="37.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>784</v>
       </c>
     </row>
@@ -10151,248 +10194,248 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="45.3" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="45.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="45.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="45.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="45.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -10421,145 +10464,145 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="67.3" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>837</v>
       </c>
     </row>
@@ -10581,159 +10624,159 @@
   </sheetPr>
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="37.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>870</v>
       </c>
     </row>
@@ -10762,10 +10805,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10794,10 +10837,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10819,163 +10862,163 @@
   </sheetPr>
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="50.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>163</v>
       </c>
     </row>
@@ -10997,201 +11040,201 @@
   </sheetPr>
   <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="47.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11220,145 +11263,145 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="49.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -11387,123 +11430,123 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="50.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -11532,255 +11575,255 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="48.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>258</v>
       </c>
     </row>

--- a/data/kb_sheets/testknowledge.xlsx
+++ b/data/kb_sheets/testknowledge.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="predisbursal_loan_query_loan_ca" sheetId="1" state="visible" r:id="rId3"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="869">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -70,19 +70,19 @@
     <t xml:space="preserve">email body</t>
   </si>
   <si>
-    <t xml:space="preserve">IMCreated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMSanctioned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMDisbursed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM+Processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM+Disbursed</t>
+    <t xml:space="preserve">imcreated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imsanctioned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imdisbursed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_disbursed</t>
   </si>
   <si>
     <t xml:space="preserve">Cancel my disbursed</t>
@@ -411,10 +411,10 @@
 We deeply regret the inconvenience caused and thank you for your cooperation in helping us maintain a professional and respectful service environment.</t>
   </si>
   <si>
-    <t xml:space="preserve">IMProcessing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM+Listed</t>
+    <t xml:space="preserve">improcessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_listed</t>
   </si>
   <si>
     <t xml:space="preserve">Loan not yet approved</t>
@@ -1009,10 +1009,10 @@
 Team Instamoney</t>
   </si>
   <si>
-    <t xml:space="preserve">IMCreatedBANK_STATEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMKYCCompleted</t>
+    <t xml:space="preserve">imcreatedbank_statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imkyccompleted</t>
   </si>
   <si>
     <t xml:space="preserve">Bank statement issue</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">Dear team, I have made a withdrawal from insta money account but funds are yet not credited. It said funds will be available with in 2 hours . Please process it as soon as possible. Regards, Hitesh Rajani 9099803525.</t>
   </si>
   <si>
-    <t xml:space="preserve">IMClosed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM+DisbursedBalance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM+DisbursedwithoutBalance</t>
+    <t xml:space="preserve">imclosed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_disbursedbalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_disbursedwithoutbalance</t>
   </si>
   <si>
     <t xml:space="preserve">Dear User,
@@ -1500,10 +1500,10 @@
     <t xml:space="preserve">Madhusudan Uthasini : Please close my loan account and update/report in cibil . On Tue, 3 Jun, 2025, 2:52 pm CS InstaMoney, &lt;cs@instamoney.app&gt; wrote: Hello Madhusudan We hope you are doing fine! We would like to inform you that we have not received any response to this email, so we are closing this email for now. Respond back if you wish to communicate further. Best Regards, Customer Support</t>
   </si>
   <si>
-    <t xml:space="preserve">IMDisbursedDelay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM+DisbursedDelay</t>
+    <t xml:space="preserve">imdisburseddelay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_disburseddelay</t>
   </si>
   <si>
     <t xml:space="preserve">I paid my emi how many times you msg me and remember me 
@@ -2050,7 +2050,7 @@
 Team Instamoney</t>
   </si>
   <si>
-    <t xml:space="preserve">IMDisbursedRegular</t>
+    <t xml:space="preserve">imdisbursedregular</t>
   </si>
   <si>
     <t xml:space="preserve">Need to update in insta money app
@@ -2146,7 +2146,7 @@
 Can you tell my why so? And also let me know how can I option our from the auto debit thing and keep the payment manually.</t>
   </si>
   <si>
-    <t xml:space="preserve">IM</t>
+    <t xml:space="preserve">im</t>
   </si>
   <si>
     <t xml:space="preserve">Dear Customer,
@@ -2159,10 +2159,10 @@
 Team InstaMoney</t>
   </si>
   <si>
-    <t xml:space="preserve">IMDelayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM+Delayed</t>
+    <t xml:space="preserve">imdelayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_delayed</t>
   </si>
   <si>
     <t xml:space="preserve">EMI DATE CHANGE</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">I have Requested to change my EMI date change and why did i recieve emi payment now.</t>
   </si>
   <si>
-    <t xml:space="preserve">IMBank Statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMDisbursedDelayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM+DisbursedRegular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM+DisbursedDelayed</t>
+    <t xml:space="preserve">imbank_statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imdisburseddelayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_disbursedregular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_disburseddelayed</t>
   </si>
   <si>
     <t xml:space="preserve">Change my bank account number</t>
@@ -2951,9 +2951,6 @@
     <t xml:space="preserve">Dear sir, Please change my email id.new email id is ramatcr75@gmail.com.If any correspondence please send my personal email id.Do not send my official mail id.please delete my official mail id .please do needful. Regards Ramachandran R</t>
   </si>
   <si>
-    <t xml:space="preserve">IMDsbursedRegular</t>
-  </si>
-  <si>
     <t xml:space="preserve">How can change my mobile number</t>
   </si>
   <si>
@@ -3040,7 +3037,7 @@
     <t xml:space="preserve">Old number:9834570209 New number:- 8141693980 Plz change my mobile number because i hve my bank account in my new number so do it fasttt ....................</t>
   </si>
   <si>
-    <t xml:space="preserve">IM+DisbursedbalanceRegular</t>
+    <t xml:space="preserve">im_disbursedbalanceregular</t>
   </si>
   <si>
     <t xml:space="preserve">Loan closure</t>
@@ -3844,7 +3841,7 @@
 Thanks &amp; Regards</t>
   </si>
   <si>
-    <t xml:space="preserve">IMProfessional Details</t>
+    <t xml:space="preserve">improfessional_details</t>
   </si>
   <si>
     <t xml:space="preserve">Hello </t>
@@ -4025,19 +4022,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rejected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DisbursedRegular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DisbursedDelayed</t>
+    <t xml:space="preserve">imrejected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_rejected</t>
   </si>
   <si>
     <t xml:space="preserve">Don't msg me</t>
@@ -4115,10 +4109,16 @@
     <t xml:space="preserve">I don't want a loan right now, if Message sends me a lot of loan to get the loan I will report in cyber cell </t>
   </si>
   <si>
-    <t xml:space="preserve">Disbursed30-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DisbursedDelayed90</t>
+    <t xml:space="preserve">imdisbursed30-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imdisburseddelayed90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_disbursed30-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im_disbursedelayed90</t>
   </si>
   <si>
     <t xml:space="preserve">Request to remove other charges
@@ -4260,9 +4260,6 @@
 No -9897960687</t>
   </si>
   <si>
-    <t xml:space="preserve">Disbursed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Remove my PAN and other my personal details from your data base
 </t>
   </si>
@@ -4629,10 +4626,10 @@
 We appreciate your kind words and are happy to know you’re satisfied with the InstaMoney platform. Please feel free to reach out if you need any further support."</t>
   </si>
   <si>
-    <t xml:space="preserve">IMUPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMENach</t>
+    <t xml:space="preserve">imupi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imenach</t>
   </si>
   <si>
     <t xml:space="preserve">For lone mistek</t>
@@ -4662,7 +4659,7 @@
 Team Instamoney</t>
   </si>
   <si>
-    <t xml:space="preserve">IMRegistration Fees</t>
+    <t xml:space="preserve">imregistration_fees</t>
   </si>
   <si>
     <t xml:space="preserve">Hi sir 
@@ -4797,9 +4794,6 @@
 This policy is also outlined in Clause 3.6 of our Terms of Service, which was accepted at the time of application.
 We understand this may be disappointing, but please know that the process followed is transparent and standard across financial services that involve pre-approval assessments.
 If you have any further questions or need assistance, we are here to help.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMRejected</t>
   </si>
   <si>
     <t xml:space="preserve">Loan rejacted</t>
@@ -5587,7 +5581,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="53.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5979,7 +5973,7 @@
   <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="68.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6351,7 +6345,7 @@
   <dimension ref="A2:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="53.3" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6403,7 +6397,7 @@
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="53.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6581,7 +6575,7 @@
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="47.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6723,21 +6717,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="M2:N2"/>
+  <dimension ref="A2:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6758,7 +6754,7 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="35.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6830,7 +6826,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="37.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6891,7 +6887,7 @@
       <c r="E4" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6925,7 +6921,7 @@
       <c r="C6" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>389</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -7074,7 +7070,7 @@
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="49.3" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7384,7 +7380,7 @@
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="43.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7661,7 +7657,7 @@
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="39.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7676,7 +7672,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7836,18 +7832,18 @@
   </sheetPr>
   <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="36.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.99"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7858,7 +7854,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>495</v>
+        <v>355</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>409</v>
@@ -7870,234 +7866,234 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="839.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -8119,7 +8115,7 @@
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="57.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8141,7 +8137,7 @@
         <v>410</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>411</v>
@@ -8149,232 +8145,232 @@
     </row>
     <row r="3" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="57.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -8428,7 +8424,7 @@
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="32.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8446,110 +8442,110 @@
     </row>
     <row r="3" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>593</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>595</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>597</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>599</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>601</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>606</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -8634,8 +8630,8 @@
   </sheetPr>
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="47.3" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8648,94 +8644,94 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>611</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>617</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>620</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>621</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="47.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -8756,8 +8752,8 @@
   </sheetPr>
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="60.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8778,13 +8774,13 @@
     </row>
     <row r="3" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>627</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>628</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>226</v>
@@ -8798,7 +8794,7 @@
         <v>225</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>226</v>
@@ -8806,13 +8802,13 @@
     </row>
     <row r="5" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>630</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>226</v>
@@ -8820,16 +8816,16 @@
     </row>
     <row r="6" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>633</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8840,19 +8836,19 @@
         <v>231</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>636</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>226</v>
@@ -8860,15 +8856,15 @@
     </row>
     <row r="9" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>638</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8877,24 +8873,24 @@
         <v>233</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>643</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>226</v>
@@ -8902,13 +8898,13 @@
     </row>
     <row r="12" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>645</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>226</v>
@@ -8930,15 +8926,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="62.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8946,116 +8942,182 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="1627" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="827" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>656</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="677" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>650</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="827" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>656</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="827" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>650</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="827" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>662</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="827" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>650</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -9138,10 +9200,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="39.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9154,12 +9216,21 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>649</v>
+        <v>355</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>665</v>
       </c>
     </row>
@@ -9179,6 +9250,15 @@
       <c r="E3" s="4" t="s">
         <v>670</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -9196,6 +9276,15 @@
       <c r="E4" s="4" t="s">
         <v>670</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -9213,6 +9302,15 @@
       <c r="E5" s="4" t="s">
         <v>670</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -9230,6 +9328,15 @@
       <c r="E6" s="4" t="s">
         <v>670</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -9247,6 +9354,15 @@
       <c r="E7" s="4" t="s">
         <v>670</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -9264,6 +9380,15 @@
       <c r="E8" s="4" t="s">
         <v>670</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -9281,6 +9406,15 @@
       <c r="E9" s="4" t="s">
         <v>670</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -9298,6 +9432,15 @@
       <c r="E10" s="4" t="s">
         <v>670</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
@@ -9315,6 +9458,15 @@
       <c r="E11" s="4" t="s">
         <v>670</v>
       </c>
+      <c r="F11" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
@@ -9330,6 +9482,15 @@
         <v>669</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>670</v>
       </c>
     </row>
@@ -9349,10 +9510,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="49.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9365,192 +9526,276 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>689</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>692</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>695</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>698</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>701</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>704</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>707</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>710</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>712</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>718</v>
+      <c r="D12" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>721</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>723</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>726</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -9569,10 +9814,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="52.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9587,113 +9832,146 @@
       <c r="C2" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>729</v>
+      <c r="D3" s="4" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>732</v>
+      <c r="D4" s="4" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>734</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>737</v>
+      <c r="D6" s="4" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>739</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>741</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>744</v>
+      <c r="D9" s="4" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>748</v>
+      <c r="D11" s="4" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="52.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>748</v>
+      <c r="C12" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -9714,8 +9992,8 @@
   </sheetPr>
   <dimension ref="A2:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9727,12 +10005,8 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9753,7 +10027,7 @@
   <dimension ref="A2:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="40.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9766,24 +10040,24 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="40.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>753</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -9840,9 +10114,9 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="49.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9850,124 +10124,124 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="1177" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="1202" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="1177" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="1177" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="1227" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>766</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="964.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="1139.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>771</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>772</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>773</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="1314.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>774</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="1002" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="1102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>778</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>779</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -10050,10 +10324,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="37.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10066,113 +10340,146 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>781</v>
+        <v>645</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>784</v>
+      <c r="D3" s="4" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>787</v>
+      <c r="D4" s="4" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>792</v>
+      <c r="D6" s="4" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>795</v>
+      <c r="D7" s="4" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>799</v>
+      <c r="D9" s="4" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>802</v>
+      <c r="D10" s="4" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -10194,7 +10501,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="45.3" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10455,7 +10762,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
@@ -10471,139 +10778,178 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>781</v>
+        <v>645</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>808</v>
+      <c r="D3" s="4" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>813</v>
+      <c r="D5" s="4" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>816</v>
+      <c r="D6" s="4" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>819</v>
+      <c r="D7" s="4" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>824</v>
+      <c r="D9" s="4" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>828</v>
+      <c r="D11" s="4" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>831</v>
+      <c r="D12" s="4" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>834</v>
+      <c r="D13" s="4" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>837</v>
+      <c r="D14" s="4" t="s">
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -10622,10 +10968,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="37.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10638,146 +10984,188 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>781</v>
+        <v>645</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>840</v>
+      <c r="D3" s="4" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>849</v>
+      <c r="D7" s="4" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>854</v>
+      <c r="D9" s="4" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>857</v>
+      <c r="D10" s="4" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>860</v>
+      <c r="D11" s="4" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>863</v>
+      <c r="D12" s="4" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>866</v>
+      <c r="D13" s="4" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>870</v>
+      <c r="D15" s="4" t="s">
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -11041,7 +11429,7 @@
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="47.95" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11568,8 +11956,8 @@
   </sheetPr>
   <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="48.65" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
